--- a/BackTest/2020-01-19 BackTest BSV.xlsx
+++ b/BackTest/2020-01-19 BackTest BSV.xlsx
@@ -451,7 +451,7 @@
         <v>2838.09791994</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2867.39185204</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>2954.62802052</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2722.03744196</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>3113.05944196</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>2999.07091066</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>2775.64865818</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2601.61315818</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>2513.45065818</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2242.63235818</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1750.30022296</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>3214.91254471</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>3799.47369072</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>3799.47369072</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>3851.50069072</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>4051.11334581</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>4220.73199072</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>4220.73199072</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>4220.73199072</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>4158.36349072</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>3813.73019072</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>3704.88029072</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>3764.69559072</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>3646.96899072</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>3646.96899072</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>3660.279290720001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>3626.745487170001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>3736.07748047</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>3726.187480470001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>3626.662758930001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>2895.618850059998</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>2988.327605469998</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>2907.590630499998</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>2871.278730499998</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>2900.611391899998</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>2988.826691899998</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>2949.549991899998</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>2965.547691899998</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>2857.747491899998</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>2936.748891899998</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>2937.408014969998</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>2883.507514969998</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>2927.857515889998</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>2849.193215889998</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>2832.295815889998</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>2811.926763149998</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>2878.684763149998</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>2875.510463149998</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>2908.068774949998</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>2895.895174949998</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>2908.466774949998</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>2954.145835289998</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>2971.429835289998</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>2965.657635289998</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>2967.047735289998</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>2963.305317549999</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>2971.343870919999</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>2945.487170919999</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>2970.846538969998</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>2916.968438969998</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>2832.237112349998</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>2748.464012349998</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>2751.400421219998</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>2751.795869909998</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>2751.795869909998</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>2758.605964069998</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>2661.841864069998</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>2652.061264069998</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>2745.708865619998</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>2743.708865619998</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>2612.314865619998</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>2626.461165619998</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>2613.962065619998</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>2595.671465619998</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>2595.671465619998</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>2483.454665619998</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>2483.454665619998</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>2483.454665619998</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>2483.454665619998</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>2483.456665619998</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>2473.487553849998</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>2485.111053849998</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>2354.418853849998</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>2390.608653849999</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>2390.594653849998</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>2390.594653849998</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>2390.596653849998</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>2353.549153849998</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>2309.906453849998</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>2305.841753849998</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>2317.571053849998</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>2324.746253849999</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>2305.566753849998</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>2305.566753849998</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>2300.643153849998</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>2304.303653849998</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>2308.398253849998</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>2308.398253849998</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>2316.670553849998</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>2270.169753849998</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>2299.658153849999</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>2299.658153849999</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>2309.588753849999</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>2309.588753849999</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>2309.433553849999</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>2407.030953849999</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>2798.785229109999</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>2798.785229109999</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>2803.017529109999</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>2956.705795759999</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>2830.558362409999</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>2983.832249389998</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>2665.541652479999</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>2597.269186229999</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>2754.721906599999</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>609.305751509999</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>630.244022189999</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>630.244022189999</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>644.037123839999</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>590.227823839999</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>640.109760489999</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>472.7937527699989</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>531.3807527699989</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>531.3807527699989</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>403.004146249999</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>526.0919384899989</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>406.0452832999989</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>467.2908714699989</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>393.1842714699989</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>383.4604714699989</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>360.387407259999</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>360.387407259999</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>342.590707259999</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>309.103307259999</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>272.620207259999</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>285.818808039999</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>257.440308039999</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>250.045508039999</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>155.483308039999</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>32.72390803999903</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>50.63850803999903</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>50.63850803999903</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>1.938608039999032</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>1.938608039999032</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>1.938608039999032</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-32.99942466000097</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-32.99942466000097</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-32.99942466000097</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-56.75826019000097</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-50.38936019000097</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-97.12526019000097</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-97.12526019000097</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-95.24736019000098</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-98.03696019000097</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-78.70436019000097</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-113.009860190001</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24574,17 +24574,11 @@
         <v>-506.8670604900011</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
-      </c>
-      <c r="I733" t="n">
-        <v>309300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24613,17 +24607,11 @@
         <v>-769.5733955500011</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
-      </c>
-      <c r="I734" t="n">
-        <v>308200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24652,17 +24640,11 @@
         <v>-960.6364955500011</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
-      </c>
-      <c r="I735" t="n">
-        <v>306600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24691,17 +24673,11 @@
         <v>-1060.864195550001</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>304500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24730,17 +24706,11 @@
         <v>-505.8478955500011</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
-      </c>
-      <c r="I737" t="n">
-        <v>303600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24769,17 +24739,11 @@
         <v>254.8566147899988</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
-      </c>
-      <c r="I738" t="n">
-        <v>304800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24808,17 +24772,11 @@
         <v>188.6528131599989</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>306400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24847,17 +24805,11 @@
         <v>404.5059115299989</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>304300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24886,17 +24838,11 @@
         <v>317.8020098999988</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>305000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24925,17 +24871,11 @@
         <v>272.0830055399989</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
-      </c>
-      <c r="I742" t="n">
-        <v>304400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24964,17 +24904,11 @@
         <v>12.12260553999886</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
-      </c>
-      <c r="I743" t="n">
-        <v>303700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25003,17 +24937,11 @@
         <v>-645.3013944600011</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>302100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25046,11 +24974,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25083,11 +25007,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25116,17 +25036,11 @@
         <v>-393.7601388500011</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
-      </c>
-      <c r="I747" t="n">
-        <v>301900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25159,11 +25073,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25196,11 +25106,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25233,11 +25139,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25270,11 +25172,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25307,11 +25205,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25344,11 +25238,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25381,11 +25271,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25414,17 +25300,11 @@
         <v>-610.7990089000011</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
-      </c>
-      <c r="I755" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25453,17 +25333,11 @@
         <v>-385.3497102800011</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
-      </c>
-      <c r="I756" t="n">
-        <v>297300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25492,17 +25366,11 @@
         <v>-204.1552089000011</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
-      </c>
-      <c r="I757" t="n">
-        <v>298200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25535,11 +25403,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25572,11 +25436,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25609,11 +25469,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25646,11 +25502,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25683,11 +25535,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25720,11 +25568,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25757,11 +25601,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25794,11 +25634,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25831,11 +25667,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25868,11 +25700,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25905,11 +25733,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25942,11 +25766,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25979,11 +25799,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26016,11 +25832,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26053,11 +25865,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26090,11 +25898,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26127,11 +25931,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26164,11 +25964,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26201,11 +25997,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26238,11 +26030,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26275,11 +26063,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26312,11 +26096,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26349,11 +26129,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26386,11 +26162,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26423,11 +26195,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26460,11 +26228,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26497,11 +26261,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26534,11 +26294,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26571,11 +26327,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26608,11 +26360,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26645,11 +26393,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26682,11 +26426,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26719,11 +26459,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26756,11 +26492,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26793,11 +26525,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26830,11 +26558,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26867,11 +26591,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26904,11 +26624,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26941,11 +26657,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26978,11 +26690,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27015,11 +26723,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27052,11 +26756,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27089,11 +26789,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27122,17 +26818,11 @@
         <v>-859.4291837800008</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
-      </c>
-      <c r="I801" t="n">
-        <v>293000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27161,17 +26851,11 @@
         <v>-438.2458837800008</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
-      </c>
-      <c r="I802" t="n">
-        <v>293000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27204,11 +26888,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27241,11 +26921,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27278,11 +26954,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27315,11 +26987,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27352,11 +27020,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27389,11 +27053,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27426,11 +27086,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27463,11 +27119,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27500,11 +27152,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27537,11 +27185,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27574,11 +27218,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27611,11 +27251,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27648,11 +27284,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27685,11 +27317,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27722,11 +27350,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27759,11 +27383,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27796,11 +27416,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27833,11 +27449,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27870,11 +27482,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27907,11 +27515,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27944,11 +27548,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27981,11 +27581,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28018,11 +27614,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28055,11 +27647,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28092,11 +27680,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28129,11 +27713,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28166,11 +27746,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28203,11 +27779,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28236,17 +27808,11 @@
         <v>-162.1956726200008</v>
       </c>
       <c r="H831" t="n">
-        <v>1</v>
-      </c>
-      <c r="I831" t="n">
-        <v>295000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28275,17 +27841,11 @@
         <v>-241.5871726200008</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
-      </c>
-      <c r="I832" t="n">
-        <v>293700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28314,17 +27874,11 @@
         <v>-289.8293710800008</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
-      </c>
-      <c r="I833" t="n">
-        <v>292700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28353,17 +27907,11 @@
         <v>-436.6412710800008</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
-      </c>
-      <c r="I834" t="n">
-        <v>292200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28392,17 +27940,11 @@
         <v>-108.1370710800008</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
-      </c>
-      <c r="I835" t="n">
-        <v>290700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28431,17 +27973,11 @@
         <v>341.7217289199992</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
-      </c>
-      <c r="I836" t="n">
-        <v>291200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28474,11 +28010,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28511,11 +28043,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28548,11 +28076,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28585,11 +28109,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28622,11 +28142,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28659,11 +28175,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28696,11 +28208,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28733,11 +28241,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28770,11 +28274,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28807,11 +28307,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28844,11 +28340,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28881,11 +28373,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28918,11 +28406,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28955,11 +28439,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28992,11 +28472,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29029,11 +28505,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29066,11 +28538,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29103,11 +28571,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29140,11 +28604,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29177,11 +28637,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29214,11 +28670,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29251,11 +28703,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29288,11 +28736,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29325,11 +28769,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29362,11 +28802,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29399,11 +28835,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29436,11 +28868,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29473,11 +28901,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29510,11 +28934,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29547,11 +28967,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29584,11 +29000,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29621,11 +29033,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29658,11 +29066,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29695,11 +29099,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29732,11 +29132,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29765,16 +29161,14 @@
         <v>1242.887456339999</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L872" t="inlineStr"/>
+      <c r="K872" t="inlineStr"/>
+      <c r="L872" t="n">
+        <v>1</v>
+      </c>
       <c r="M872" t="inlineStr"/>
     </row>
     <row r="873">
@@ -29800,7 +29194,7 @@
         <v>1313.770156339999</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29833,7 +29227,7 @@
         <v>1297.503356339999</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29866,7 +29260,7 @@
         <v>1219.366456339999</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29899,7 +29293,7 @@
         <v>915.9302973099991</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29932,7 +29326,7 @@
         <v>908.0155973099991</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29965,7 +29359,7 @@
         <v>991.6640973099991</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29998,7 +29392,7 @@
         <v>1084.619197309999</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -30163,7 +29557,7 @@
         <v>1110.245204809999</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -30196,7 +29590,7 @@
         <v>1022.510804809999</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -30229,7 +29623,7 @@
         <v>1046.786104809999</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -30262,7 +29656,7 @@
         <v>1014.991825249999</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -30295,7 +29689,7 @@
         <v>951.226325249999</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -30328,7 +29722,7 @@
         <v>951.226325249999</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -30361,7 +29755,7 @@
         <v>770.737530089999</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -30394,7 +29788,7 @@
         <v>703.9303300899991</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -33298,1258 +32692,1106 @@
         <v>-835.057594830001</v>
       </c>
       <c r="H979" t="n">
-        <v>1</v>
-      </c>
-      <c r="I979" t="n">
-        <v>293300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr">
+      <c r="K979" t="inlineStr"/>
+      <c r="L979" t="n">
+        <v>1</v>
+      </c>
+      <c r="M979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="1" t="n">
+        <v>978</v>
+      </c>
+      <c r="B980" t="n">
+        <v>292500</v>
+      </c>
+      <c r="C980" t="n">
+        <v>293000</v>
+      </c>
+      <c r="D980" t="n">
+        <v>293500</v>
+      </c>
+      <c r="E980" t="n">
+        <v>292500</v>
+      </c>
+      <c r="F980" t="n">
+        <v>15.1413017</v>
+      </c>
+      <c r="G980" t="n">
+        <v>-835.057594830001</v>
+      </c>
+      <c r="H980" t="n">
+        <v>0</v>
+      </c>
+      <c r="I980" t="inlineStr"/>
+      <c r="J980" t="inlineStr"/>
+      <c r="K980" t="inlineStr"/>
+      <c r="L980" t="n">
+        <v>1</v>
+      </c>
+      <c r="M980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="1" t="n">
+        <v>979</v>
+      </c>
+      <c r="B981" t="n">
+        <v>293000</v>
+      </c>
+      <c r="C981" t="n">
+        <v>291700</v>
+      </c>
+      <c r="D981" t="n">
+        <v>293000</v>
+      </c>
+      <c r="E981" t="n">
+        <v>291700</v>
+      </c>
+      <c r="F981" t="n">
+        <v>95.2949</v>
+      </c>
+      <c r="G981" t="n">
+        <v>-930.352494830001</v>
+      </c>
+      <c r="H981" t="n">
+        <v>0</v>
+      </c>
+      <c r="I981" t="inlineStr"/>
+      <c r="J981" t="inlineStr"/>
+      <c r="K981" t="inlineStr"/>
+      <c r="L981" t="n">
+        <v>1</v>
+      </c>
+      <c r="M981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="1" t="n">
+        <v>980</v>
+      </c>
+      <c r="B982" t="n">
+        <v>292000</v>
+      </c>
+      <c r="C982" t="n">
+        <v>293600</v>
+      </c>
+      <c r="D982" t="n">
+        <v>293700</v>
+      </c>
+      <c r="E982" t="n">
+        <v>290800</v>
+      </c>
+      <c r="F982" t="n">
+        <v>163.1587</v>
+      </c>
+      <c r="G982" t="n">
+        <v>-767.193794830001</v>
+      </c>
+      <c r="H982" t="n">
+        <v>0</v>
+      </c>
+      <c r="I982" t="inlineStr"/>
+      <c r="J982" t="inlineStr"/>
+      <c r="K982" t="inlineStr"/>
+      <c r="L982" t="n">
+        <v>1</v>
+      </c>
+      <c r="M982" t="inlineStr"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="1" t="n">
+        <v>981</v>
+      </c>
+      <c r="B983" t="n">
+        <v>293700</v>
+      </c>
+      <c r="C983" t="n">
+        <v>293700</v>
+      </c>
+      <c r="D983" t="n">
+        <v>293700</v>
+      </c>
+      <c r="E983" t="n">
+        <v>292900</v>
+      </c>
+      <c r="F983" t="n">
+        <v>33.08200136</v>
+      </c>
+      <c r="G983" t="n">
+        <v>-734.111793470001</v>
+      </c>
+      <c r="H983" t="n">
+        <v>0</v>
+      </c>
+      <c r="I983" t="inlineStr"/>
+      <c r="J983" t="inlineStr"/>
+      <c r="K983" t="inlineStr"/>
+      <c r="L983" t="n">
+        <v>1</v>
+      </c>
+      <c r="M983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="1" t="n">
+        <v>982</v>
+      </c>
+      <c r="B984" t="n">
+        <v>293700</v>
+      </c>
+      <c r="C984" t="n">
+        <v>293000</v>
+      </c>
+      <c r="D984" t="n">
+        <v>293700</v>
+      </c>
+      <c r="E984" t="n">
+        <v>292900</v>
+      </c>
+      <c r="F984" t="n">
+        <v>51.7709</v>
+      </c>
+      <c r="G984" t="n">
+        <v>-785.882693470001</v>
+      </c>
+      <c r="H984" t="n">
+        <v>0</v>
+      </c>
+      <c r="I984" t="inlineStr"/>
+      <c r="J984" t="inlineStr"/>
+      <c r="K984" t="inlineStr"/>
+      <c r="L984" t="n">
+        <v>1</v>
+      </c>
+      <c r="M984" t="inlineStr"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="1" t="n">
+        <v>983</v>
+      </c>
+      <c r="B985" t="n">
+        <v>293700</v>
+      </c>
+      <c r="C985" t="n">
+        <v>294500</v>
+      </c>
+      <c r="D985" t="n">
+        <v>294600</v>
+      </c>
+      <c r="E985" t="n">
+        <v>292700</v>
+      </c>
+      <c r="F985" t="n">
+        <v>168.0945</v>
+      </c>
+      <c r="G985" t="n">
+        <v>-617.7881934700009</v>
+      </c>
+      <c r="H985" t="n">
+        <v>0</v>
+      </c>
+      <c r="I985" t="inlineStr"/>
+      <c r="J985" t="inlineStr"/>
+      <c r="K985" t="inlineStr"/>
+      <c r="L985" t="n">
+        <v>1</v>
+      </c>
+      <c r="M985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="1" t="n">
+        <v>984</v>
+      </c>
+      <c r="B986" t="n">
+        <v>294500</v>
+      </c>
+      <c r="C986" t="n">
+        <v>294600</v>
+      </c>
+      <c r="D986" t="n">
+        <v>294600</v>
+      </c>
+      <c r="E986" t="n">
+        <v>294000</v>
+      </c>
+      <c r="F986" t="n">
+        <v>114.9803</v>
+      </c>
+      <c r="G986" t="n">
+        <v>-502.8078934700009</v>
+      </c>
+      <c r="H986" t="n">
+        <v>0</v>
+      </c>
+      <c r="I986" t="inlineStr"/>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr"/>
+      <c r="L986" t="n">
+        <v>1</v>
+      </c>
+      <c r="M986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="B987" t="n">
+        <v>294500</v>
+      </c>
+      <c r="C987" t="n">
+        <v>294500</v>
+      </c>
+      <c r="D987" t="n">
+        <v>294600</v>
+      </c>
+      <c r="E987" t="n">
+        <v>294400</v>
+      </c>
+      <c r="F987" t="n">
+        <v>1.8172</v>
+      </c>
+      <c r="G987" t="n">
+        <v>-504.6250934700009</v>
+      </c>
+      <c r="H987" t="n">
+        <v>0</v>
+      </c>
+      <c r="I987" t="inlineStr"/>
+      <c r="J987" t="inlineStr"/>
+      <c r="K987" t="inlineStr"/>
+      <c r="L987" t="n">
+        <v>1</v>
+      </c>
+      <c r="M987" t="inlineStr"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="n">
+        <v>986</v>
+      </c>
+      <c r="B988" t="n">
+        <v>294500</v>
+      </c>
+      <c r="C988" t="n">
+        <v>294500</v>
+      </c>
+      <c r="D988" t="n">
+        <v>295100</v>
+      </c>
+      <c r="E988" t="n">
+        <v>294000</v>
+      </c>
+      <c r="F988" t="n">
+        <v>105.0589</v>
+      </c>
+      <c r="G988" t="n">
+        <v>-504.6250934700009</v>
+      </c>
+      <c r="H988" t="n">
+        <v>0</v>
+      </c>
+      <c r="I988" t="inlineStr"/>
+      <c r="J988" t="inlineStr"/>
+      <c r="K988" t="inlineStr"/>
+      <c r="L988" t="n">
+        <v>1</v>
+      </c>
+      <c r="M988" t="inlineStr"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="n">
+        <v>987</v>
+      </c>
+      <c r="B989" t="n">
+        <v>294500</v>
+      </c>
+      <c r="C989" t="n">
+        <v>294900</v>
+      </c>
+      <c r="D989" t="n">
+        <v>294900</v>
+      </c>
+      <c r="E989" t="n">
+        <v>294500</v>
+      </c>
+      <c r="F989" t="n">
+        <v>22.11770128</v>
+      </c>
+      <c r="G989" t="n">
+        <v>-482.5073921900009</v>
+      </c>
+      <c r="H989" t="n">
+        <v>0</v>
+      </c>
+      <c r="I989" t="inlineStr"/>
+      <c r="J989" t="inlineStr"/>
+      <c r="K989" t="inlineStr"/>
+      <c r="L989" t="n">
+        <v>1</v>
+      </c>
+      <c r="M989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="n">
+        <v>988</v>
+      </c>
+      <c r="B990" t="n">
+        <v>294900</v>
+      </c>
+      <c r="C990" t="n">
+        <v>295600</v>
+      </c>
+      <c r="D990" t="n">
+        <v>295600</v>
+      </c>
+      <c r="E990" t="n">
+        <v>294900</v>
+      </c>
+      <c r="F990" t="n">
+        <v>61.38739872</v>
+      </c>
+      <c r="G990" t="n">
+        <v>-421.1199934700009</v>
+      </c>
+      <c r="H990" t="n">
+        <v>0</v>
+      </c>
+      <c r="I990" t="inlineStr"/>
+      <c r="J990" t="inlineStr"/>
+      <c r="K990" t="inlineStr"/>
+      <c r="L990" t="n">
+        <v>1</v>
+      </c>
+      <c r="M990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="B991" t="n">
+        <v>295500</v>
+      </c>
+      <c r="C991" t="n">
+        <v>295500</v>
+      </c>
+      <c r="D991" t="n">
+        <v>295500</v>
+      </c>
+      <c r="E991" t="n">
+        <v>294900</v>
+      </c>
+      <c r="F991" t="n">
+        <v>12.12712842</v>
+      </c>
+      <c r="G991" t="n">
+        <v>-433.2471218900009</v>
+      </c>
+      <c r="H991" t="n">
+        <v>0</v>
+      </c>
+      <c r="I991" t="inlineStr"/>
+      <c r="J991" t="inlineStr"/>
+      <c r="K991" t="inlineStr"/>
+      <c r="L991" t="n">
+        <v>1</v>
+      </c>
+      <c r="M991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="n">
+        <v>990</v>
+      </c>
+      <c r="B992" t="n">
+        <v>295500</v>
+      </c>
+      <c r="C992" t="n">
+        <v>295500</v>
+      </c>
+      <c r="D992" t="n">
+        <v>295600</v>
+      </c>
+      <c r="E992" t="n">
+        <v>295500</v>
+      </c>
+      <c r="F992" t="n">
+        <v>10.862</v>
+      </c>
+      <c r="G992" t="n">
+        <v>-433.2471218900009</v>
+      </c>
+      <c r="H992" t="n">
+        <v>0</v>
+      </c>
+      <c r="I992" t="inlineStr"/>
+      <c r="J992" t="inlineStr"/>
+      <c r="K992" t="inlineStr"/>
+      <c r="L992" t="n">
+        <v>1</v>
+      </c>
+      <c r="M992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="1" t="n">
+        <v>991</v>
+      </c>
+      <c r="B993" t="n">
+        <v>295500</v>
+      </c>
+      <c r="C993" t="n">
+        <v>295600</v>
+      </c>
+      <c r="D993" t="n">
+        <v>295600</v>
+      </c>
+      <c r="E993" t="n">
+        <v>294800</v>
+      </c>
+      <c r="F993" t="n">
+        <v>18.4299</v>
+      </c>
+      <c r="G993" t="n">
+        <v>-414.817221890001</v>
+      </c>
+      <c r="H993" t="n">
+        <v>0</v>
+      </c>
+      <c r="I993" t="inlineStr"/>
+      <c r="J993" t="inlineStr"/>
+      <c r="K993" t="inlineStr"/>
+      <c r="L993" t="n">
+        <v>1</v>
+      </c>
+      <c r="M993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="B994" t="n">
+        <v>295600</v>
+      </c>
+      <c r="C994" t="n">
+        <v>295600</v>
+      </c>
+      <c r="D994" t="n">
+        <v>297300</v>
+      </c>
+      <c r="E994" t="n">
+        <v>295600</v>
+      </c>
+      <c r="F994" t="n">
+        <v>4.79467158</v>
+      </c>
+      <c r="G994" t="n">
+        <v>-414.817221890001</v>
+      </c>
+      <c r="H994" t="n">
+        <v>0</v>
+      </c>
+      <c r="I994" t="inlineStr"/>
+      <c r="J994" t="inlineStr"/>
+      <c r="K994" t="inlineStr"/>
+      <c r="L994" t="n">
+        <v>1</v>
+      </c>
+      <c r="M994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="1" t="n">
+        <v>993</v>
+      </c>
+      <c r="B995" t="n">
+        <v>297100</v>
+      </c>
+      <c r="C995" t="n">
+        <v>297100</v>
+      </c>
+      <c r="D995" t="n">
+        <v>297100</v>
+      </c>
+      <c r="E995" t="n">
+        <v>295700</v>
+      </c>
+      <c r="F995" t="n">
+        <v>18.4824</v>
+      </c>
+      <c r="G995" t="n">
+        <v>-396.334821890001</v>
+      </c>
+      <c r="H995" t="n">
+        <v>0</v>
+      </c>
+      <c r="I995" t="inlineStr"/>
+      <c r="J995" t="inlineStr"/>
+      <c r="K995" t="inlineStr"/>
+      <c r="L995" t="n">
+        <v>1</v>
+      </c>
+      <c r="M995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>994</v>
+      </c>
+      <c r="B996" t="n">
+        <v>296100</v>
+      </c>
+      <c r="C996" t="n">
+        <v>298500</v>
+      </c>
+      <c r="D996" t="n">
+        <v>298900</v>
+      </c>
+      <c r="E996" t="n">
+        <v>296100</v>
+      </c>
+      <c r="F996" t="n">
+        <v>81.9756</v>
+      </c>
+      <c r="G996" t="n">
+        <v>-314.359221890001</v>
+      </c>
+      <c r="H996" t="n">
+        <v>0</v>
+      </c>
+      <c r="I996" t="inlineStr"/>
+      <c r="J996" t="inlineStr"/>
+      <c r="K996" t="inlineStr"/>
+      <c r="L996" t="n">
+        <v>1</v>
+      </c>
+      <c r="M996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="B997" t="n">
+        <v>297500</v>
+      </c>
+      <c r="C997" t="n">
+        <v>297200</v>
+      </c>
+      <c r="D997" t="n">
+        <v>297500</v>
+      </c>
+      <c r="E997" t="n">
+        <v>296200</v>
+      </c>
+      <c r="F997" t="n">
+        <v>96.0095</v>
+      </c>
+      <c r="G997" t="n">
+        <v>-410.368721890001</v>
+      </c>
+      <c r="H997" t="n">
+        <v>0</v>
+      </c>
+      <c r="I997" t="inlineStr"/>
+      <c r="J997" t="inlineStr"/>
+      <c r="K997" t="inlineStr"/>
+      <c r="L997" t="n">
+        <v>1</v>
+      </c>
+      <c r="M997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="1" t="n">
+        <v>996</v>
+      </c>
+      <c r="B998" t="n">
+        <v>297200</v>
+      </c>
+      <c r="C998" t="n">
+        <v>297000</v>
+      </c>
+      <c r="D998" t="n">
+        <v>297200</v>
+      </c>
+      <c r="E998" t="n">
+        <v>296000</v>
+      </c>
+      <c r="F998" t="n">
+        <v>27.27600107</v>
+      </c>
+      <c r="G998" t="n">
+        <v>-437.644722960001</v>
+      </c>
+      <c r="H998" t="n">
+        <v>0</v>
+      </c>
+      <c r="I998" t="inlineStr"/>
+      <c r="J998" t="inlineStr"/>
+      <c r="K998" t="inlineStr"/>
+      <c r="L998" t="n">
+        <v>1</v>
+      </c>
+      <c r="M998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="1" t="n">
+        <v>997</v>
+      </c>
+      <c r="B999" t="n">
+        <v>296000</v>
+      </c>
+      <c r="C999" t="n">
+        <v>296000</v>
+      </c>
+      <c r="D999" t="n">
+        <v>297000</v>
+      </c>
+      <c r="E999" t="n">
+        <v>295600</v>
+      </c>
+      <c r="F999" t="n">
+        <v>24.3296</v>
+      </c>
+      <c r="G999" t="n">
+        <v>-461.974322960001</v>
+      </c>
+      <c r="H999" t="n">
+        <v>0</v>
+      </c>
+      <c r="I999" t="inlineStr"/>
+      <c r="J999" t="inlineStr"/>
+      <c r="K999" t="inlineStr"/>
+      <c r="L999" t="n">
+        <v>1</v>
+      </c>
+      <c r="M999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1" t="n">
+        <v>998</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>297000</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>297000</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>297000</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>296000</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>4.5833</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>-457.391022960001</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1000" t="inlineStr"/>
+      <c r="J1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr"/>
+      <c r="L1000" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>296000</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>296700</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>296900</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>295300</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>60.4443</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>-517.835322960001</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1001" t="inlineStr"/>
+      <c r="J1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr"/>
+      <c r="L1001" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>296900</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>295300</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>297000</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>295300</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>7.2032</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>-525.038522960001</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1002" t="inlineStr"/>
+      <c r="J1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr"/>
+      <c r="L1002" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>295200</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>295700</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>295700</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>294800</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>7.8779</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>-517.1606229600011</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1003" t="inlineStr"/>
+      <c r="J1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr"/>
+      <c r="L1003" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>295700</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>295200</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>296500</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>295200</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>-544.7806229600011</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1004" t="inlineStr"/>
+      <c r="J1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr"/>
+      <c r="L1004" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>295900</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>295000</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>295900</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>295000</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>44.2413</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>-589.0219229600011</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1005" t="inlineStr"/>
+      <c r="J1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr"/>
+      <c r="L1005" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>295700</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>294100</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>295700</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>292800</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>72.13864307999999</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>-661.1605660400011</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1006" t="inlineStr"/>
+      <c r="J1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr"/>
+      <c r="L1006" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>294100</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>293200</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>294100</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>292800</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>51.8545</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>-713.0150660400011</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1007" t="inlineStr"/>
+      <c r="J1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr"/>
+      <c r="L1007" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>293200</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>292100</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>293200</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>292100</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>168.0867</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>-881.1017660400012</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1008" t="inlineStr"/>
+      <c r="J1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr"/>
+      <c r="L1008" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>293200</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>293000</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>293200</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>292100</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>68.7285</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>-812.3732660400012</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1009" t="inlineStr"/>
+      <c r="J1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr"/>
+      <c r="L1009" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>292200</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>291600</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>293000</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>291600</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>79.4593</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>-891.8325660400012</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1010" t="inlineStr"/>
+      <c r="J1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr"/>
+      <c r="L1010" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>292700</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>292400</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>292700</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>291600</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>40.1572</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>-851.6753660400012</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1011" t="inlineStr"/>
+      <c r="J1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr"/>
+      <c r="L1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>292300</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>290000</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>292300</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>290000</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>356.8575</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>-1208.532866040001</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>292400</v>
+      </c>
+      <c r="J1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L979" t="n">
-        <v>1</v>
-      </c>
-      <c r="M979" t="inlineStr"/>
-    </row>
-    <row r="980">
-      <c r="A980" s="1" t="n">
-        <v>978</v>
-      </c>
-      <c r="B980" t="n">
-        <v>292500</v>
-      </c>
-      <c r="C980" t="n">
-        <v>293000</v>
-      </c>
-      <c r="D980" t="n">
-        <v>293500</v>
-      </c>
-      <c r="E980" t="n">
-        <v>292500</v>
-      </c>
-      <c r="F980" t="n">
-        <v>15.1413017</v>
-      </c>
-      <c r="G980" t="n">
-        <v>-835.057594830001</v>
-      </c>
-      <c r="H980" t="n">
-        <v>1</v>
-      </c>
-      <c r="I980" t="n">
-        <v>293000</v>
-      </c>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L980" t="n">
-        <v>1</v>
-      </c>
-      <c r="M980" t="inlineStr"/>
-    </row>
-    <row r="981">
-      <c r="A981" s="1" t="n">
-        <v>979</v>
-      </c>
-      <c r="B981" t="n">
-        <v>293000</v>
-      </c>
-      <c r="C981" t="n">
-        <v>291700</v>
-      </c>
-      <c r="D981" t="n">
-        <v>293000</v>
-      </c>
-      <c r="E981" t="n">
-        <v>291700</v>
-      </c>
-      <c r="F981" t="n">
-        <v>95.2949</v>
-      </c>
-      <c r="G981" t="n">
-        <v>-930.352494830001</v>
-      </c>
-      <c r="H981" t="n">
-        <v>1</v>
-      </c>
-      <c r="I981" t="n">
-        <v>293000</v>
-      </c>
-      <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L981" t="n">
-        <v>1</v>
-      </c>
-      <c r="M981" t="inlineStr"/>
-    </row>
-    <row r="982">
-      <c r="A982" s="1" t="n">
-        <v>980</v>
-      </c>
-      <c r="B982" t="n">
-        <v>292000</v>
-      </c>
-      <c r="C982" t="n">
-        <v>293600</v>
-      </c>
-      <c r="D982" t="n">
-        <v>293700</v>
-      </c>
-      <c r="E982" t="n">
-        <v>290800</v>
-      </c>
-      <c r="F982" t="n">
-        <v>163.1587</v>
-      </c>
-      <c r="G982" t="n">
-        <v>-767.193794830001</v>
-      </c>
-      <c r="H982" t="n">
-        <v>1</v>
-      </c>
-      <c r="I982" t="n">
-        <v>291700</v>
-      </c>
-      <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L982" t="n">
-        <v>1</v>
-      </c>
-      <c r="M982" t="inlineStr"/>
-    </row>
-    <row r="983">
-      <c r="A983" s="1" t="n">
-        <v>981</v>
-      </c>
-      <c r="B983" t="n">
-        <v>293700</v>
-      </c>
-      <c r="C983" t="n">
-        <v>293700</v>
-      </c>
-      <c r="D983" t="n">
-        <v>293700</v>
-      </c>
-      <c r="E983" t="n">
-        <v>292900</v>
-      </c>
-      <c r="F983" t="n">
-        <v>33.08200136</v>
-      </c>
-      <c r="G983" t="n">
-        <v>-734.111793470001</v>
-      </c>
-      <c r="H983" t="n">
-        <v>1</v>
-      </c>
-      <c r="I983" t="n">
-        <v>293600</v>
-      </c>
-      <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L983" t="n">
-        <v>1</v>
-      </c>
-      <c r="M983" t="inlineStr"/>
-    </row>
-    <row r="984">
-      <c r="A984" s="1" t="n">
-        <v>982</v>
-      </c>
-      <c r="B984" t="n">
-        <v>293700</v>
-      </c>
-      <c r="C984" t="n">
-        <v>293000</v>
-      </c>
-      <c r="D984" t="n">
-        <v>293700</v>
-      </c>
-      <c r="E984" t="n">
-        <v>292900</v>
-      </c>
-      <c r="F984" t="n">
-        <v>51.7709</v>
-      </c>
-      <c r="G984" t="n">
-        <v>-785.882693470001</v>
-      </c>
-      <c r="H984" t="n">
-        <v>1</v>
-      </c>
-      <c r="I984" t="n">
-        <v>293700</v>
-      </c>
-      <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L984" t="n">
-        <v>1</v>
-      </c>
-      <c r="M984" t="inlineStr"/>
-    </row>
-    <row r="985">
-      <c r="A985" s="1" t="n">
-        <v>983</v>
-      </c>
-      <c r="B985" t="n">
-        <v>293700</v>
-      </c>
-      <c r="C985" t="n">
-        <v>294500</v>
-      </c>
-      <c r="D985" t="n">
-        <v>294600</v>
-      </c>
-      <c r="E985" t="n">
-        <v>292700</v>
-      </c>
-      <c r="F985" t="n">
-        <v>168.0945</v>
-      </c>
-      <c r="G985" t="n">
-        <v>-617.7881934700009</v>
-      </c>
-      <c r="H985" t="n">
-        <v>1</v>
-      </c>
-      <c r="I985" t="n">
-        <v>293000</v>
-      </c>
-      <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L985" t="n">
-        <v>1</v>
-      </c>
-      <c r="M985" t="inlineStr"/>
-    </row>
-    <row r="986">
-      <c r="A986" s="1" t="n">
-        <v>984</v>
-      </c>
-      <c r="B986" t="n">
-        <v>294500</v>
-      </c>
-      <c r="C986" t="n">
-        <v>294600</v>
-      </c>
-      <c r="D986" t="n">
-        <v>294600</v>
-      </c>
-      <c r="E986" t="n">
-        <v>294000</v>
-      </c>
-      <c r="F986" t="n">
-        <v>114.9803</v>
-      </c>
-      <c r="G986" t="n">
-        <v>-502.8078934700009</v>
-      </c>
-      <c r="H986" t="n">
-        <v>0</v>
-      </c>
-      <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L986" t="n">
-        <v>1</v>
-      </c>
-      <c r="M986" t="inlineStr"/>
-    </row>
-    <row r="987">
-      <c r="A987" s="1" t="n">
-        <v>985</v>
-      </c>
-      <c r="B987" t="n">
-        <v>294500</v>
-      </c>
-      <c r="C987" t="n">
-        <v>294500</v>
-      </c>
-      <c r="D987" t="n">
-        <v>294600</v>
-      </c>
-      <c r="E987" t="n">
-        <v>294400</v>
-      </c>
-      <c r="F987" t="n">
-        <v>1.8172</v>
-      </c>
-      <c r="G987" t="n">
-        <v>-504.6250934700009</v>
-      </c>
-      <c r="H987" t="n">
-        <v>0</v>
-      </c>
-      <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L987" t="n">
-        <v>1</v>
-      </c>
-      <c r="M987" t="inlineStr"/>
-    </row>
-    <row r="988">
-      <c r="A988" s="1" t="n">
-        <v>986</v>
-      </c>
-      <c r="B988" t="n">
-        <v>294500</v>
-      </c>
-      <c r="C988" t="n">
-        <v>294500</v>
-      </c>
-      <c r="D988" t="n">
-        <v>295100</v>
-      </c>
-      <c r="E988" t="n">
-        <v>294000</v>
-      </c>
-      <c r="F988" t="n">
-        <v>105.0589</v>
-      </c>
-      <c r="G988" t="n">
-        <v>-504.6250934700009</v>
-      </c>
-      <c r="H988" t="n">
-        <v>0</v>
-      </c>
-      <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L988" t="n">
-        <v>1</v>
-      </c>
-      <c r="M988" t="inlineStr"/>
-    </row>
-    <row r="989">
-      <c r="A989" s="1" t="n">
-        <v>987</v>
-      </c>
-      <c r="B989" t="n">
-        <v>294500</v>
-      </c>
-      <c r="C989" t="n">
-        <v>294900</v>
-      </c>
-      <c r="D989" t="n">
-        <v>294900</v>
-      </c>
-      <c r="E989" t="n">
-        <v>294500</v>
-      </c>
-      <c r="F989" t="n">
-        <v>22.11770128</v>
-      </c>
-      <c r="G989" t="n">
-        <v>-482.5073921900009</v>
-      </c>
-      <c r="H989" t="n">
-        <v>0</v>
-      </c>
-      <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L989" t="n">
-        <v>1</v>
-      </c>
-      <c r="M989" t="inlineStr"/>
-    </row>
-    <row r="990">
-      <c r="A990" s="1" t="n">
-        <v>988</v>
-      </c>
-      <c r="B990" t="n">
-        <v>294900</v>
-      </c>
-      <c r="C990" t="n">
-        <v>295600</v>
-      </c>
-      <c r="D990" t="n">
-        <v>295600</v>
-      </c>
-      <c r="E990" t="n">
-        <v>294900</v>
-      </c>
-      <c r="F990" t="n">
-        <v>61.38739872</v>
-      </c>
-      <c r="G990" t="n">
-        <v>-421.1199934700009</v>
-      </c>
-      <c r="H990" t="n">
-        <v>0</v>
-      </c>
-      <c r="I990" t="inlineStr"/>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L990" t="n">
-        <v>1</v>
-      </c>
-      <c r="M990" t="inlineStr"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="1" t="n">
-        <v>989</v>
-      </c>
-      <c r="B991" t="n">
-        <v>295500</v>
-      </c>
-      <c r="C991" t="n">
-        <v>295500</v>
-      </c>
-      <c r="D991" t="n">
-        <v>295500</v>
-      </c>
-      <c r="E991" t="n">
-        <v>294900</v>
-      </c>
-      <c r="F991" t="n">
-        <v>12.12712842</v>
-      </c>
-      <c r="G991" t="n">
-        <v>-433.2471218900009</v>
-      </c>
-      <c r="H991" t="n">
-        <v>0</v>
-      </c>
-      <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L991" t="n">
-        <v>1</v>
-      </c>
-      <c r="M991" t="inlineStr"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="1" t="n">
-        <v>990</v>
-      </c>
-      <c r="B992" t="n">
-        <v>295500</v>
-      </c>
-      <c r="C992" t="n">
-        <v>295500</v>
-      </c>
-      <c r="D992" t="n">
-        <v>295600</v>
-      </c>
-      <c r="E992" t="n">
-        <v>295500</v>
-      </c>
-      <c r="F992" t="n">
-        <v>10.862</v>
-      </c>
-      <c r="G992" t="n">
-        <v>-433.2471218900009</v>
-      </c>
-      <c r="H992" t="n">
-        <v>0</v>
-      </c>
-      <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L992" t="n">
-        <v>1</v>
-      </c>
-      <c r="M992" t="inlineStr"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="1" t="n">
-        <v>991</v>
-      </c>
-      <c r="B993" t="n">
-        <v>295500</v>
-      </c>
-      <c r="C993" t="n">
-        <v>295600</v>
-      </c>
-      <c r="D993" t="n">
-        <v>295600</v>
-      </c>
-      <c r="E993" t="n">
-        <v>294800</v>
-      </c>
-      <c r="F993" t="n">
-        <v>18.4299</v>
-      </c>
-      <c r="G993" t="n">
-        <v>-414.817221890001</v>
-      </c>
-      <c r="H993" t="n">
-        <v>0</v>
-      </c>
-      <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L993" t="n">
-        <v>1</v>
-      </c>
-      <c r="M993" t="inlineStr"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="1" t="n">
-        <v>992</v>
-      </c>
-      <c r="B994" t="n">
-        <v>295600</v>
-      </c>
-      <c r="C994" t="n">
-        <v>295600</v>
-      </c>
-      <c r="D994" t="n">
-        <v>297300</v>
-      </c>
-      <c r="E994" t="n">
-        <v>295600</v>
-      </c>
-      <c r="F994" t="n">
-        <v>4.79467158</v>
-      </c>
-      <c r="G994" t="n">
-        <v>-414.817221890001</v>
-      </c>
-      <c r="H994" t="n">
-        <v>0</v>
-      </c>
-      <c r="I994" t="inlineStr"/>
-      <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L994" t="n">
-        <v>1</v>
-      </c>
-      <c r="M994" t="inlineStr"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="1" t="n">
-        <v>993</v>
-      </c>
-      <c r="B995" t="n">
-        <v>297100</v>
-      </c>
-      <c r="C995" t="n">
-        <v>297100</v>
-      </c>
-      <c r="D995" t="n">
-        <v>297100</v>
-      </c>
-      <c r="E995" t="n">
-        <v>295700</v>
-      </c>
-      <c r="F995" t="n">
-        <v>18.4824</v>
-      </c>
-      <c r="G995" t="n">
-        <v>-396.334821890001</v>
-      </c>
-      <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L995" t="n">
-        <v>1</v>
-      </c>
-      <c r="M995" t="inlineStr"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="1" t="n">
-        <v>994</v>
-      </c>
-      <c r="B996" t="n">
-        <v>296100</v>
-      </c>
-      <c r="C996" t="n">
-        <v>298500</v>
-      </c>
-      <c r="D996" t="n">
-        <v>298900</v>
-      </c>
-      <c r="E996" t="n">
-        <v>296100</v>
-      </c>
-      <c r="F996" t="n">
-        <v>81.9756</v>
-      </c>
-      <c r="G996" t="n">
-        <v>-314.359221890001</v>
-      </c>
-      <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L996" t="n">
-        <v>1</v>
-      </c>
-      <c r="M996" t="inlineStr"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="1" t="n">
-        <v>995</v>
-      </c>
-      <c r="B997" t="n">
-        <v>297500</v>
-      </c>
-      <c r="C997" t="n">
-        <v>297200</v>
-      </c>
-      <c r="D997" t="n">
-        <v>297500</v>
-      </c>
-      <c r="E997" t="n">
-        <v>296200</v>
-      </c>
-      <c r="F997" t="n">
-        <v>96.0095</v>
-      </c>
-      <c r="G997" t="n">
-        <v>-410.368721890001</v>
-      </c>
-      <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L997" t="n">
-        <v>1</v>
-      </c>
-      <c r="M997" t="inlineStr"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="1" t="n">
-        <v>996</v>
-      </c>
-      <c r="B998" t="n">
-        <v>297200</v>
-      </c>
-      <c r="C998" t="n">
-        <v>297000</v>
-      </c>
-      <c r="D998" t="n">
-        <v>297200</v>
-      </c>
-      <c r="E998" t="n">
-        <v>296000</v>
-      </c>
-      <c r="F998" t="n">
-        <v>27.27600107</v>
-      </c>
-      <c r="G998" t="n">
-        <v>-437.644722960001</v>
-      </c>
-      <c r="H998" t="n">
-        <v>0</v>
-      </c>
-      <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L998" t="n">
-        <v>1</v>
-      </c>
-      <c r="M998" t="inlineStr"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="1" t="n">
-        <v>997</v>
-      </c>
-      <c r="B999" t="n">
-        <v>296000</v>
-      </c>
-      <c r="C999" t="n">
-        <v>296000</v>
-      </c>
-      <c r="D999" t="n">
-        <v>297000</v>
-      </c>
-      <c r="E999" t="n">
-        <v>295600</v>
-      </c>
-      <c r="F999" t="n">
-        <v>24.3296</v>
-      </c>
-      <c r="G999" t="n">
-        <v>-461.974322960001</v>
-      </c>
-      <c r="H999" t="n">
-        <v>0</v>
-      </c>
-      <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L999" t="n">
-        <v>1</v>
-      </c>
-      <c r="M999" t="inlineStr"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="1" t="n">
-        <v>998</v>
-      </c>
-      <c r="B1000" t="n">
-        <v>297000</v>
-      </c>
-      <c r="C1000" t="n">
-        <v>297000</v>
-      </c>
-      <c r="D1000" t="n">
-        <v>297000</v>
-      </c>
-      <c r="E1000" t="n">
-        <v>296000</v>
-      </c>
-      <c r="F1000" t="n">
-        <v>4.5833</v>
-      </c>
-      <c r="G1000" t="n">
-        <v>-457.391022960001</v>
-      </c>
-      <c r="H1000" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1000" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1000" t="inlineStr"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="1" t="n">
-        <v>999</v>
-      </c>
-      <c r="B1001" t="n">
-        <v>296000</v>
-      </c>
-      <c r="C1001" t="n">
-        <v>296700</v>
-      </c>
-      <c r="D1001" t="n">
-        <v>296900</v>
-      </c>
-      <c r="E1001" t="n">
-        <v>295300</v>
-      </c>
-      <c r="F1001" t="n">
-        <v>60.4443</v>
-      </c>
-      <c r="G1001" t="n">
-        <v>-517.835322960001</v>
-      </c>
-      <c r="H1001" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1001" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1001" t="inlineStr"/>
-    </row>
-    <row r="1002">
-      <c r="A1002" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B1002" t="n">
-        <v>296900</v>
-      </c>
-      <c r="C1002" t="n">
-        <v>295300</v>
-      </c>
-      <c r="D1002" t="n">
-        <v>297000</v>
-      </c>
-      <c r="E1002" t="n">
-        <v>295300</v>
-      </c>
-      <c r="F1002" t="n">
-        <v>7.2032</v>
-      </c>
-      <c r="G1002" t="n">
-        <v>-525.038522960001</v>
-      </c>
-      <c r="H1002" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1002" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1002" t="inlineStr"/>
-    </row>
-    <row r="1003">
-      <c r="A1003" s="1" t="n">
-        <v>1001</v>
-      </c>
-      <c r="B1003" t="n">
-        <v>295200</v>
-      </c>
-      <c r="C1003" t="n">
-        <v>295700</v>
-      </c>
-      <c r="D1003" t="n">
-        <v>295700</v>
-      </c>
-      <c r="E1003" t="n">
-        <v>294800</v>
-      </c>
-      <c r="F1003" t="n">
-        <v>7.8779</v>
-      </c>
-      <c r="G1003" t="n">
-        <v>-517.1606229600011</v>
-      </c>
-      <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1003" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1003" t="inlineStr"/>
-    </row>
-    <row r="1004">
-      <c r="A1004" s="1" t="n">
-        <v>1002</v>
-      </c>
-      <c r="B1004" t="n">
-        <v>295700</v>
-      </c>
-      <c r="C1004" t="n">
-        <v>295200</v>
-      </c>
-      <c r="D1004" t="n">
-        <v>296500</v>
-      </c>
-      <c r="E1004" t="n">
-        <v>295200</v>
-      </c>
-      <c r="F1004" t="n">
-        <v>27.62</v>
-      </c>
-      <c r="G1004" t="n">
-        <v>-544.7806229600011</v>
-      </c>
-      <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1004" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1004" t="inlineStr"/>
-    </row>
-    <row r="1005">
-      <c r="A1005" s="1" t="n">
-        <v>1003</v>
-      </c>
-      <c r="B1005" t="n">
-        <v>295900</v>
-      </c>
-      <c r="C1005" t="n">
-        <v>295000</v>
-      </c>
-      <c r="D1005" t="n">
-        <v>295900</v>
-      </c>
-      <c r="E1005" t="n">
-        <v>295000</v>
-      </c>
-      <c r="F1005" t="n">
-        <v>44.2413</v>
-      </c>
-      <c r="G1005" t="n">
-        <v>-589.0219229600011</v>
-      </c>
-      <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1005" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1005" t="inlineStr"/>
-    </row>
-    <row r="1006">
-      <c r="A1006" s="1" t="n">
-        <v>1004</v>
-      </c>
-      <c r="B1006" t="n">
-        <v>295700</v>
-      </c>
-      <c r="C1006" t="n">
-        <v>294100</v>
-      </c>
-      <c r="D1006" t="n">
-        <v>295700</v>
-      </c>
-      <c r="E1006" t="n">
-        <v>292800</v>
-      </c>
-      <c r="F1006" t="n">
-        <v>72.13864307999999</v>
-      </c>
-      <c r="G1006" t="n">
-        <v>-661.1605660400011</v>
-      </c>
-      <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1006" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1006" t="inlineStr"/>
-    </row>
-    <row r="1007">
-      <c r="A1007" s="1" t="n">
-        <v>1005</v>
-      </c>
-      <c r="B1007" t="n">
-        <v>294100</v>
-      </c>
-      <c r="C1007" t="n">
-        <v>293200</v>
-      </c>
-      <c r="D1007" t="n">
-        <v>294100</v>
-      </c>
-      <c r="E1007" t="n">
-        <v>292800</v>
-      </c>
-      <c r="F1007" t="n">
-        <v>51.8545</v>
-      </c>
-      <c r="G1007" t="n">
-        <v>-713.0150660400011</v>
-      </c>
-      <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1007" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1007" t="inlineStr"/>
-    </row>
-    <row r="1008">
-      <c r="A1008" s="1" t="n">
-        <v>1006</v>
-      </c>
-      <c r="B1008" t="n">
-        <v>293200</v>
-      </c>
-      <c r="C1008" t="n">
-        <v>292100</v>
-      </c>
-      <c r="D1008" t="n">
-        <v>293200</v>
-      </c>
-      <c r="E1008" t="n">
-        <v>292100</v>
-      </c>
-      <c r="F1008" t="n">
-        <v>168.0867</v>
-      </c>
-      <c r="G1008" t="n">
-        <v>-881.1017660400012</v>
-      </c>
-      <c r="H1008" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1008" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1008" t="inlineStr"/>
-    </row>
-    <row r="1009">
-      <c r="A1009" s="1" t="n">
-        <v>1007</v>
-      </c>
-      <c r="B1009" t="n">
-        <v>293200</v>
-      </c>
-      <c r="C1009" t="n">
-        <v>293000</v>
-      </c>
-      <c r="D1009" t="n">
-        <v>293200</v>
-      </c>
-      <c r="E1009" t="n">
-        <v>292100</v>
-      </c>
-      <c r="F1009" t="n">
-        <v>68.7285</v>
-      </c>
-      <c r="G1009" t="n">
-        <v>-812.3732660400012</v>
-      </c>
-      <c r="H1009" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1009" t="n">
-        <v>292100</v>
-      </c>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1009" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1009" t="inlineStr"/>
-    </row>
-    <row r="1010">
-      <c r="A1010" s="1" t="n">
-        <v>1008</v>
-      </c>
-      <c r="B1010" t="n">
-        <v>292200</v>
-      </c>
-      <c r="C1010" t="n">
-        <v>291600</v>
-      </c>
-      <c r="D1010" t="n">
-        <v>293000</v>
-      </c>
-      <c r="E1010" t="n">
-        <v>291600</v>
-      </c>
-      <c r="F1010" t="n">
-        <v>79.4593</v>
-      </c>
-      <c r="G1010" t="n">
-        <v>-891.8325660400012</v>
-      </c>
-      <c r="H1010" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1010" t="n">
-        <v>293000</v>
-      </c>
-      <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1010" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1010" t="inlineStr"/>
-    </row>
-    <row r="1011">
-      <c r="A1011" s="1" t="n">
-        <v>1009</v>
-      </c>
-      <c r="B1011" t="n">
-        <v>292700</v>
-      </c>
-      <c r="C1011" t="n">
-        <v>292400</v>
-      </c>
-      <c r="D1011" t="n">
-        <v>292700</v>
-      </c>
-      <c r="E1011" t="n">
-        <v>291600</v>
-      </c>
-      <c r="F1011" t="n">
-        <v>40.1572</v>
-      </c>
-      <c r="G1011" t="n">
-        <v>-851.6753660400012</v>
-      </c>
-      <c r="H1011" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1011" t="n">
-        <v>291600</v>
-      </c>
-      <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1011" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1011" t="inlineStr"/>
-    </row>
-    <row r="1012">
-      <c r="A1012" s="1" t="n">
-        <v>1010</v>
-      </c>
-      <c r="B1012" t="n">
-        <v>292300</v>
-      </c>
-      <c r="C1012" t="n">
-        <v>290000</v>
-      </c>
-      <c r="D1012" t="n">
-        <v>292300</v>
-      </c>
-      <c r="E1012" t="n">
-        <v>290000</v>
-      </c>
-      <c r="F1012" t="n">
-        <v>356.8575</v>
-      </c>
-      <c r="G1012" t="n">
-        <v>-1208.532866040001</v>
-      </c>
-      <c r="H1012" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1012" t="n">
-        <v>292400</v>
-      </c>
-      <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34578,11 +33820,9 @@
         <v>-1447.655266040001</v>
       </c>
       <c r="H1013" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1013" t="n">
-        <v>290000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
@@ -34617,11 +33857,9 @@
         <v>-1217.003666040001</v>
       </c>
       <c r="H1014" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1014" t="n">
-        <v>288700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
@@ -35085,11 +34323,9 @@
         <v>-520.6502408600013</v>
       </c>
       <c r="H1026" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1026" t="n">
-        <v>296500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
@@ -37979,16 +37215,18 @@
         <v>817.1019220999988</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L1104" t="inlineStr"/>
+      <c r="L1104" t="n">
+        <v>1</v>
+      </c>
       <c r="M1104" t="inlineStr"/>
     </row>
     <row r="1105">
@@ -38018,7 +37256,11 @@
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr"/>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -38051,7 +37293,11 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr"/>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -38084,7 +37330,11 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr"/>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -38117,7 +37367,11 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr"/>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -38150,7 +37404,11 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr"/>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -38183,7 +37441,11 @@
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr"/>
+      <c r="K1110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -38216,7 +37478,11 @@
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr"/>
+      <c r="K1111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -38249,7 +37515,11 @@
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr"/>
+      <c r="K1112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -38282,7 +37552,11 @@
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr"/>
+      <c r="K1113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -38315,7 +37589,11 @@
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr"/>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -38348,7 +37626,11 @@
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr"/>
+      <c r="K1115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -38381,7 +37663,11 @@
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr"/>
+      <c r="K1116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -38414,7 +37700,11 @@
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr"/>
+      <c r="K1117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -38447,7 +37737,11 @@
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr"/>
+      <c r="K1118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -38480,7 +37774,11 @@
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr"/>
+      <c r="K1119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -38513,7 +37811,11 @@
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr"/>
+      <c r="K1120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -38546,7 +37848,11 @@
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr"/>
+      <c r="K1121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -38579,7 +37885,11 @@
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr"/>
+      <c r="K1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -38612,7 +37922,11 @@
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr"/>
+      <c r="K1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -38645,7 +37959,11 @@
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr"/>
+      <c r="K1124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -38678,7 +37996,11 @@
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr"/>
+      <c r="K1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -38707,11 +38029,15 @@
         <v>928.1938384499987</v>
       </c>
       <c r="H1126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr"/>
+      <c r="K1126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -38740,11 +38066,15 @@
         <v>894.7970384499987</v>
       </c>
       <c r="H1127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr"/>
+      <c r="K1127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -38777,7 +38107,11 @@
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr"/>
+      <c r="K1128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -38810,7 +38144,11 @@
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr"/>
+      <c r="K1129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -38843,7 +38181,11 @@
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr"/>
+      <c r="K1130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -38876,7 +38218,11 @@
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr"/>
+      <c r="K1131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -38909,7 +38255,11 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr"/>
+      <c r="K1132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -38942,7 +38292,11 @@
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr"/>
+      <c r="K1133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -38975,7 +38329,11 @@
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr"/>
+      <c r="K1134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -39008,7 +38366,11 @@
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr"/>
+      <c r="K1135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -39041,7 +38403,11 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr"/>
+      <c r="K1136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -39074,7 +38440,11 @@
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr"/>
+      <c r="K1137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -39107,7 +38477,11 @@
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr"/>
+      <c r="K1138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -39140,7 +38514,11 @@
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr"/>
+      <c r="K1139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -39173,7 +38551,11 @@
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr"/>
+      <c r="K1140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -39206,7 +38588,11 @@
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr"/>
+      <c r="K1141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -39239,7 +38625,11 @@
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr"/>
+      <c r="K1142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -39272,7 +38662,11 @@
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr"/>
+      <c r="K1143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -39305,7 +38699,11 @@
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr"/>
+      <c r="K1144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -39338,7 +38736,11 @@
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr"/>
+      <c r="K1145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -39371,7 +38773,11 @@
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr"/>
+      <c r="K1146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -39404,7 +38810,11 @@
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr"/>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -39437,7 +38847,11 @@
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr"/>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -39470,7 +38884,11 @@
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr"/>
+      <c r="K1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -39503,7 +38921,11 @@
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr"/>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -39536,7 +38958,11 @@
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr"/>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -39569,7 +38995,11 @@
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr"/>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -39602,7 +39032,11 @@
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr"/>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -39635,7 +39069,11 @@
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr"/>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -39668,7 +39106,11 @@
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr"/>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -39701,7 +39143,11 @@
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr"/>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -39734,7 +39180,11 @@
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr"/>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -39767,7 +39217,11 @@
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr"/>
+      <c r="K1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -39800,7 +39254,11 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr"/>
+      <c r="K1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -39833,7 +39291,11 @@
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr"/>
+      <c r="K1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -39866,7 +39328,11 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr"/>
+      <c r="K1161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -39899,7 +39365,11 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr"/>
+      <c r="K1162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -39932,7 +39402,11 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr"/>
+      <c r="K1163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -39965,7 +39439,11 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr"/>
+      <c r="K1164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -39998,7 +39476,11 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr"/>
+      <c r="K1165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -40031,7 +39513,11 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr"/>
+      <c r="K1166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -40064,7 +39550,11 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr"/>
+      <c r="K1167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -40097,7 +39587,11 @@
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr"/>
+      <c r="K1168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -40130,7 +39624,11 @@
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr"/>
+      <c r="K1169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -40163,7 +39661,11 @@
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr"/>
+      <c r="K1170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -40196,7 +39698,11 @@
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr"/>
+      <c r="K1171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -40229,7 +39735,11 @@
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr"/>
+      <c r="K1172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -40262,7 +39772,11 @@
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr"/>
+      <c r="K1173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -40295,7 +39809,11 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr"/>
+      <c r="K1174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -40328,7 +39846,11 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr"/>
+      <c r="K1175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -40361,7 +39883,11 @@
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr"/>
+      <c r="K1176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -40394,7 +39920,11 @@
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr"/>
+      <c r="K1177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -40427,7 +39957,11 @@
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr"/>
+      <c r="K1178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -40460,7 +39994,11 @@
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr"/>
+      <c r="K1179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -40493,7 +40031,11 @@
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr"/>
+      <c r="K1180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -40526,7 +40068,11 @@
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr"/>
+      <c r="K1181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -40559,7 +40105,11 @@
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr"/>
+      <c r="K1182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -40592,7 +40142,11 @@
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr"/>
+      <c r="K1183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -40625,7 +40179,11 @@
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr"/>
+      <c r="K1184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -40658,7 +40216,11 @@
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr"/>
+      <c r="K1185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -40691,7 +40253,11 @@
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr"/>
+      <c r="K1186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -40724,7 +40290,11 @@
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr"/>
+      <c r="K1187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -40757,7 +40327,11 @@
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr"/>
+      <c r="K1188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -40790,7 +40364,11 @@
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr"/>
+      <c r="K1189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -40823,7 +40401,11 @@
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr"/>
+      <c r="K1190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -40856,7 +40438,11 @@
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr"/>
+      <c r="K1191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -40889,7 +40475,11 @@
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr"/>
+      <c r="K1192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -40922,7 +40512,11 @@
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr"/>
+      <c r="K1193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -40955,7 +40549,11 @@
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr"/>
+      <c r="K1194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -40988,7 +40586,11 @@
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr"/>
+      <c r="K1195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -41021,7 +40623,11 @@
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr"/>
+      <c r="K1196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -41054,7 +40660,11 @@
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr"/>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -41087,7 +40697,11 @@
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr"/>
+      <c r="K1198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -41120,7 +40734,11 @@
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr"/>
+      <c r="K1199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -41153,7 +40771,11 @@
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr"/>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -41186,7 +40808,11 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr"/>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -41219,7 +40845,11 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr"/>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -41252,7 +40882,11 @@
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr"/>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -41285,7 +40919,11 @@
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr"/>
+      <c r="K1204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -41318,7 +40956,11 @@
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr"/>
+      <c r="K1205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -41351,7 +40993,11 @@
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr"/>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -41384,7 +41030,11 @@
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr"/>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -41417,7 +41067,11 @@
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr"/>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -41450,7 +41104,11 @@
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr"/>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -41483,7 +41141,11 @@
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr"/>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -41516,7 +41178,11 @@
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr"/>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -41549,7 +41215,11 @@
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr"/>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -41582,7 +41252,11 @@
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr"/>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -41615,7 +41289,11 @@
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr"/>
+      <c r="K1214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -41648,7 +41326,11 @@
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr"/>
+      <c r="K1215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -41681,7 +41363,11 @@
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr"/>
+      <c r="K1216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -41714,7 +41400,11 @@
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr"/>
+      <c r="K1217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -41747,7 +41437,11 @@
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr"/>
+      <c r="K1218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -41780,7 +41474,11 @@
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr"/>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -41813,7 +41511,11 @@
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr"/>
+      <c r="K1220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -41846,7 +41548,11 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr"/>
+      <c r="K1221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -41879,7 +41585,11 @@
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr"/>
+      <c r="K1222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -41912,7 +41622,11 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr"/>
+      <c r="K1223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -41945,7 +41659,11 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr"/>
+      <c r="K1224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -41978,7 +41696,11 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr"/>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -42011,7 +41733,11 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr"/>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -42044,7 +41770,11 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr"/>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -42077,7 +41807,11 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr"/>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -42110,7 +41844,11 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr"/>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -42143,7 +41881,11 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -42176,7 +41918,11 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -42209,7 +41955,11 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -42242,7 +41992,11 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -42275,7 +42029,11 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -42308,7 +42066,11 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -42341,7 +42103,11 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -42374,7 +42140,11 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -42407,7 +42177,11 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -42440,7 +42214,11 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -42473,7 +42251,11 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -42506,7 +42288,11 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr"/>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -42539,7 +42325,11 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr"/>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -42572,7 +42362,11 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr"/>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -42605,7 +42399,11 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr"/>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -42638,7 +42436,11 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr"/>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -42671,7 +42473,11 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr"/>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -42704,7 +42510,11 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -42737,7 +42547,11 @@
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr"/>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -42770,7 +42584,11 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr"/>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -42803,7 +42621,11 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr"/>
+      <c r="K1250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -42836,7 +42658,11 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr"/>
+      <c r="K1251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -42869,7 +42695,11 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr"/>
+      <c r="K1252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -42902,7 +42732,11 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr"/>
+      <c r="K1253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -42935,7 +42769,11 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr"/>
+      <c r="K1254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -42968,7 +42806,11 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr"/>
+      <c r="K1255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -43001,7 +42843,11 @@
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr"/>
+      <c r="K1256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -43034,7 +42880,11 @@
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr"/>
+      <c r="K1257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -43067,7 +42917,11 @@
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr"/>
+      <c r="K1258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -43100,7 +42954,11 @@
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr"/>
+      <c r="K1259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -43133,7 +42991,11 @@
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr"/>
+      <c r="K1260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -43166,7 +43028,11 @@
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr"/>
+      <c r="K1261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -43199,7 +43065,11 @@
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr"/>
+      <c r="K1262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -43232,7 +43102,11 @@
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr"/>
+      <c r="K1263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -43265,7 +43139,11 @@
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr"/>
+      <c r="K1264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -43298,7 +43176,11 @@
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr"/>
+      <c r="K1265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -43331,7 +43213,11 @@
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr"/>
+      <c r="K1266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -43364,7 +43250,11 @@
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr"/>
+      <c r="K1267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -43397,7 +43287,11 @@
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr"/>
+      <c r="K1268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -43430,7 +43324,11 @@
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
-      <c r="K1269" t="inlineStr"/>
+      <c r="K1269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
@@ -43463,7 +43361,11 @@
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
-      <c r="K1270" t="inlineStr"/>
+      <c r="K1270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1270" t="n">
         <v>1</v>
       </c>
@@ -43496,7 +43398,11 @@
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
-      <c r="K1271" t="inlineStr"/>
+      <c r="K1271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1271" t="n">
         <v>1</v>
       </c>
@@ -43529,7 +43435,11 @@
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
-      <c r="K1272" t="inlineStr"/>
+      <c r="K1272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1272" t="n">
         <v>1</v>
       </c>
@@ -43562,7 +43472,11 @@
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
-      <c r="K1273" t="inlineStr"/>
+      <c r="K1273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1273" t="n">
         <v>1</v>
       </c>
@@ -43595,7 +43509,11 @@
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
-      <c r="K1274" t="inlineStr"/>
+      <c r="K1274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1274" t="n">
         <v>1</v>
       </c>
@@ -43628,7 +43546,11 @@
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
-      <c r="K1275" t="inlineStr"/>
+      <c r="K1275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1275" t="n">
         <v>1</v>
       </c>
@@ -43661,7 +43583,11 @@
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
-      <c r="K1276" t="inlineStr"/>
+      <c r="K1276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1276" t="n">
         <v>1</v>
       </c>
@@ -43694,7 +43620,11 @@
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
-      <c r="K1277" t="inlineStr"/>
+      <c r="K1277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1277" t="n">
         <v>1</v>
       </c>
@@ -43727,7 +43657,11 @@
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
-      <c r="K1278" t="inlineStr"/>
+      <c r="K1278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1278" t="n">
         <v>1</v>
       </c>
@@ -43760,7 +43694,11 @@
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
-      <c r="K1279" t="inlineStr"/>
+      <c r="K1279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1279" t="n">
         <v>1</v>
       </c>
@@ -43793,7 +43731,11 @@
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
-      <c r="K1280" t="inlineStr"/>
+      <c r="K1280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1280" t="n">
         <v>1</v>
       </c>
@@ -43826,7 +43768,11 @@
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
-      <c r="K1281" t="inlineStr"/>
+      <c r="K1281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1281" t="n">
         <v>1</v>
       </c>
@@ -43859,7 +43805,11 @@
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
-      <c r="K1282" t="inlineStr"/>
+      <c r="K1282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1282" t="n">
         <v>1</v>
       </c>
@@ -43892,7 +43842,11 @@
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
-      <c r="K1283" t="inlineStr"/>
+      <c r="K1283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1283" t="n">
         <v>1</v>
       </c>
@@ -43925,7 +43879,11 @@
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
-      <c r="K1284" t="inlineStr"/>
+      <c r="K1284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1284" t="n">
         <v>1</v>
       </c>
@@ -43958,7 +43916,11 @@
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
-      <c r="K1285" t="inlineStr"/>
+      <c r="K1285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1285" t="n">
         <v>1</v>
       </c>
@@ -43991,7 +43953,11 @@
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
-      <c r="K1286" t="inlineStr"/>
+      <c r="K1286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1286" t="n">
         <v>1</v>
       </c>
@@ -44024,7 +43990,11 @@
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
-      <c r="K1287" t="inlineStr"/>
+      <c r="K1287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1287" t="n">
         <v>1</v>
       </c>
@@ -44057,7 +44027,11 @@
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
-      <c r="K1288" t="inlineStr"/>
+      <c r="K1288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1288" t="n">
         <v>1</v>
       </c>
@@ -44090,7 +44064,11 @@
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
-      <c r="K1289" t="inlineStr"/>
+      <c r="K1289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1289" t="n">
         <v>1</v>
       </c>
@@ -44123,7 +44101,11 @@
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
-      <c r="K1290" t="inlineStr"/>
+      <c r="K1290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1290" t="n">
         <v>1</v>
       </c>
@@ -44156,7 +44138,11 @@
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
-      <c r="K1291" t="inlineStr"/>
+      <c r="K1291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1291" t="n">
         <v>1</v>
       </c>
@@ -44189,7 +44175,11 @@
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
-      <c r="K1292" t="inlineStr"/>
+      <c r="K1292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1292" t="n">
         <v>1</v>
       </c>
@@ -44222,7 +44212,11 @@
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
-      <c r="K1293" t="inlineStr"/>
+      <c r="K1293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1293" t="n">
         <v>1</v>
       </c>
@@ -44255,7 +44249,11 @@
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
-      <c r="K1294" t="inlineStr"/>
+      <c r="K1294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1294" t="n">
         <v>1</v>
       </c>
@@ -44288,7 +44286,11 @@
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
-      <c r="K1295" t="inlineStr"/>
+      <c r="K1295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1295" t="n">
         <v>1</v>
       </c>
@@ -44321,7 +44323,11 @@
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
-      <c r="K1296" t="inlineStr"/>
+      <c r="K1296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1296" t="n">
         <v>1</v>
       </c>
@@ -44354,7 +44360,11 @@
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
-      <c r="K1297" t="inlineStr"/>
+      <c r="K1297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1297" t="n">
         <v>1</v>
       </c>
@@ -44387,7 +44397,11 @@
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
-      <c r="K1298" t="inlineStr"/>
+      <c r="K1298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1298" t="n">
         <v>1</v>
       </c>
@@ -44420,7 +44434,11 @@
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
-      <c r="K1299" t="inlineStr"/>
+      <c r="K1299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1299" t="n">
         <v>1</v>
       </c>
@@ -44453,7 +44471,11 @@
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
-      <c r="K1300" t="inlineStr"/>
+      <c r="K1300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1300" t="n">
         <v>1</v>
       </c>
@@ -44486,7 +44508,11 @@
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
-      <c r="K1301" t="inlineStr"/>
+      <c r="K1301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1301" t="n">
         <v>1</v>
       </c>
@@ -44519,7 +44545,11 @@
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
-      <c r="K1302" t="inlineStr"/>
+      <c r="K1302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1302" t="n">
         <v>1</v>
       </c>
@@ -44552,7 +44582,11 @@
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
-      <c r="K1303" t="inlineStr"/>
+      <c r="K1303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1303" t="n">
         <v>1</v>
       </c>
@@ -44585,7 +44619,11 @@
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
-      <c r="K1304" t="inlineStr"/>
+      <c r="K1304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1304" t="n">
         <v>1</v>
       </c>
@@ -44618,7 +44656,11 @@
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
-      <c r="K1305" t="inlineStr"/>
+      <c r="K1305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1305" t="n">
         <v>1</v>
       </c>
@@ -44651,7 +44693,11 @@
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
-      <c r="K1306" t="inlineStr"/>
+      <c r="K1306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1306" t="n">
         <v>1</v>
       </c>
@@ -44684,7 +44730,11 @@
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
-      <c r="K1307" t="inlineStr"/>
+      <c r="K1307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1307" t="n">
         <v>1</v>
       </c>
@@ -44717,7 +44767,11 @@
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
-      <c r="K1308" t="inlineStr"/>
+      <c r="K1308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1308" t="n">
         <v>1</v>
       </c>
@@ -44750,7 +44804,11 @@
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
-      <c r="K1309" t="inlineStr"/>
+      <c r="K1309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1309" t="n">
         <v>1</v>
       </c>
@@ -44783,7 +44841,11 @@
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
-      <c r="K1310" t="inlineStr"/>
+      <c r="K1310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1310" t="n">
         <v>1</v>
       </c>
@@ -44816,7 +44878,11 @@
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
-      <c r="K1311" t="inlineStr"/>
+      <c r="K1311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1311" t="n">
         <v>1</v>
       </c>
@@ -44849,7 +44915,11 @@
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
-      <c r="K1312" t="inlineStr"/>
+      <c r="K1312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1312" t="n">
         <v>1</v>
       </c>
@@ -44882,7 +44952,11 @@
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
-      <c r="K1313" t="inlineStr"/>
+      <c r="K1313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1313" t="n">
         <v>1</v>
       </c>
@@ -44915,7 +44989,11 @@
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
-      <c r="K1314" t="inlineStr"/>
+      <c r="K1314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1314" t="n">
         <v>1</v>
       </c>
@@ -44948,7 +45026,11 @@
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
-      <c r="K1315" t="inlineStr"/>
+      <c r="K1315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1315" t="n">
         <v>1</v>
       </c>
@@ -44981,7 +45063,11 @@
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
-      <c r="K1316" t="inlineStr"/>
+      <c r="K1316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1316" t="n">
         <v>1</v>
       </c>
@@ -45014,7 +45100,11 @@
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
-      <c r="K1317" t="inlineStr"/>
+      <c r="K1317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1317" t="n">
         <v>1</v>
       </c>
@@ -45047,7 +45137,11 @@
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
-      <c r="K1318" t="inlineStr"/>
+      <c r="K1318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1318" t="n">
         <v>1</v>
       </c>
@@ -45080,7 +45174,11 @@
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
-      <c r="K1319" t="inlineStr"/>
+      <c r="K1319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1319" t="n">
         <v>1</v>
       </c>
@@ -45113,7 +45211,11 @@
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
-      <c r="K1320" t="inlineStr"/>
+      <c r="K1320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1320" t="n">
         <v>1</v>
       </c>
@@ -45146,7 +45248,11 @@
       </c>
       <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
-      <c r="K1321" t="inlineStr"/>
+      <c r="K1321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1321" t="n">
         <v>1</v>
       </c>
@@ -45179,7 +45285,11 @@
       </c>
       <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="inlineStr"/>
-      <c r="K1322" t="inlineStr"/>
+      <c r="K1322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1322" t="n">
         <v>1</v>
       </c>
@@ -45212,7 +45322,11 @@
       </c>
       <c r="I1323" t="inlineStr"/>
       <c r="J1323" t="inlineStr"/>
-      <c r="K1323" t="inlineStr"/>
+      <c r="K1323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1323" t="n">
         <v>1</v>
       </c>
@@ -45241,15 +45355,13 @@
         <v>-644.844469300001</v>
       </c>
       <c r="H1324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1324" t="n">
-        <v>299000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1324" t="inlineStr"/>
       <c r="J1324" t="inlineStr"/>
       <c r="K1324" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1324" t="n">
@@ -45280,11 +45392,9 @@
         <v>-644.844469300001</v>
       </c>
       <c r="H1325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1325" t="n">
-        <v>298500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1325" t="inlineStr"/>
       <c r="J1325" t="inlineStr"/>
       <c r="K1325" t="inlineStr">
         <is>
@@ -45319,11 +45429,9 @@
         <v>-665.519346910001</v>
       </c>
       <c r="H1326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1326" t="n">
-        <v>298500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1326" t="inlineStr"/>
       <c r="J1326" t="inlineStr"/>
       <c r="K1326" t="inlineStr">
         <is>
@@ -45358,11 +45466,9 @@
         <v>-721.001346910001</v>
       </c>
       <c r="H1327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1327" t="n">
-        <v>298100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1327" t="inlineStr"/>
       <c r="J1327" t="inlineStr"/>
       <c r="K1327" t="inlineStr">
         <is>
@@ -45397,11 +45503,9 @@
         <v>-697.919146910001</v>
       </c>
       <c r="H1328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1328" t="n">
-        <v>298000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1328" t="inlineStr"/>
       <c r="J1328" t="inlineStr"/>
       <c r="K1328" t="inlineStr">
         <is>
@@ -45436,11 +45540,9 @@
         <v>-955.9918173700009</v>
       </c>
       <c r="H1329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1329" t="n">
-        <v>298200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1329" t="inlineStr"/>
       <c r="J1329" t="inlineStr"/>
       <c r="K1329" t="inlineStr">
         <is>
@@ -45475,11 +45577,9 @@
         <v>-852.6243173700009</v>
       </c>
       <c r="H1330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1330" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1330" t="inlineStr"/>
       <c r="J1330" t="inlineStr"/>
       <c r="K1330" t="inlineStr">
         <is>
@@ -45514,11 +45614,9 @@
         <v>-1107.156717370001</v>
       </c>
       <c r="H1331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1331" t="n">
-        <v>297500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1331" t="inlineStr"/>
       <c r="J1331" t="inlineStr"/>
       <c r="K1331" t="inlineStr">
         <is>
@@ -45553,11 +45651,9 @@
         <v>-870.977717370001</v>
       </c>
       <c r="H1332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1332" t="n">
-        <v>295200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1332" t="inlineStr"/>
       <c r="J1332" t="inlineStr"/>
       <c r="K1332" t="inlineStr">
         <is>
@@ -45592,11 +45688,9 @@
         <v>-797.920026380001</v>
       </c>
       <c r="H1333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1333" t="n">
-        <v>295300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1333" t="inlineStr"/>
       <c r="J1333" t="inlineStr"/>
       <c r="K1333" t="inlineStr">
         <is>
